--- a/udacity_p3.xlsx
+++ b/udacity_p3.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GBMLVFILFS04N02.rbsres01.net\home2$\maniihf\Profile\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F389CA1E-65E3-497C-B5F8-DFF59DF70821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E575C785-D3A1-4A16-94AF-295F26A158EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{06300978-5E59-4565-88E3-41BEB6A0BFEB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12600" xr2:uid="{06300978-5E59-4565-88E3-41BEB6A0BFEB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Screenshots" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>AWS Codebuild:</t>
   </si>
@@ -57,6 +57,33 @@
   </si>
   <si>
     <t>Cloudwatch logs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: </t>
+  </si>
+  <si>
+    <t>Dockerfile</t>
+  </si>
+  <si>
+    <t>project/starter/analytics/Dockerfile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DockerFile - Repo path </t>
+  </si>
+  <si>
+    <t>Buildspec.yml</t>
+  </si>
+  <si>
+    <t>buildspec.yml</t>
+  </si>
+  <si>
+    <t>deployment.yaml</t>
+  </si>
+  <si>
+    <t>Repo path:</t>
+  </si>
+  <si>
+    <t>project/starter/analytics/deployment.yaml</t>
   </si>
 </sst>
 </file>
@@ -126,233 +153,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>254508</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>174129</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5121DC42-F6D0-4E2B-D5D6-324BC367ABE1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="762000"/>
-          <a:ext cx="9208008" cy="4365129"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>284988</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>162304</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4ABAEE8-CA88-4E9B-8C30-5876A35E2895}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="5905500"/>
-          <a:ext cx="9848088" cy="3019804"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>19812</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>78265</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E0949E3-A42B-7E6C-8644-C579D015ED77}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="571500"/>
-          <a:ext cx="9582912" cy="1792765"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>380138</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>76071</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F9E8B50-BFE8-6DF4-855A-F35904DFEA17}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="12763500"/>
-          <a:ext cx="6895238" cy="1028571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>361243</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>47524</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8150A9DA-95C3-FB81-DBC4-3FA0F5CA8067}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="14097000"/>
-          <a:ext cx="5657143" cy="809524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>427986</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>37461</xdr:colOff>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>37714</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -369,7 +176,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -390,13 +197,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>189357</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>408432</xdr:colOff>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>8667</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -413,7 +220,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -434,21 +241,241 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>547116</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>181801</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>46863</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>32586</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
+        <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF77AB41-8EF8-FBC2-729E-4CCA5E64996A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{538D8508-1071-80EF-512A-813EB5E4F92D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="3810000"/>
+          <a:ext cx="7562088" cy="3652086"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>467487</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>21570</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B9DD2F9-4DBA-FF68-174D-37912775BA46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="571500"/>
+          <a:ext cx="9811512" cy="4022070"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>284607</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>3345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{400FC824-A1B1-3D9C-1FEA-A355990E0102}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="8953500"/>
+          <a:ext cx="9628632" cy="3622845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>579708</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>37976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A1EFC54-94C7-EF09-A410-BC78E361D85C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="13335000"/>
+          <a:ext cx="10533333" cy="990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>580013</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>161786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CB4622C-41FE-FFD6-08BC-E75A2C65A45B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="14668500"/>
+          <a:ext cx="8095238" cy="1114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>601599</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>181242</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8EC89DE-75AF-0E95-2B0F-880364951D55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -464,8 +491,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="26479500"/>
-          <a:ext cx="9500616" cy="3229801"/>
+          <a:off x="609600" y="27432001"/>
+          <a:ext cx="9336024" cy="3229241"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -478,21 +505,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>263652</xdr:colOff>
-      <xdr:row>177</xdr:row>
-      <xdr:rowOff>115578</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>421767</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>46928</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11">
+        <xdr:cNvPr id="28" name="Picture 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00781F8B-8B51-09C0-0815-6F48BB9FE619}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20EAFDF8-18D3-852A-63DF-C120E4B2B982}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -508,8 +535,140 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="29908500"/>
-          <a:ext cx="9217152" cy="4497078"/>
+          <a:off x="609600" y="30861001"/>
+          <a:ext cx="11594592" cy="4999927"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>134664</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4257B606-FD12-2B69-E63F-5F634F6A1066}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="36957000"/>
+          <a:ext cx="9601200" cy="4897164"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>473583</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>104373</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{964CF240-4483-4605-DE2B-4928BE0376A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="42672000"/>
+          <a:ext cx="9208008" cy="4295373"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>510159</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>52970</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A7A343A-C158-7761-2010-90B9E5D782A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="47586901"/>
+          <a:ext cx="9244584" cy="4472569"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -818,68 +977,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC277FDB-2194-43EF-B194-1A2951153775}">
-  <dimension ref="B3:B135"/>
+  <dimension ref="A2:C250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="M79" sqref="M79"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="C250" sqref="C250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>3</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="1" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>4</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="1" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>6</v>
+      </c>
+      <c r="B104" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>7</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>8</v>
+      </c>
+      <c r="B193" t="s">
+        <v>10</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>9</v>
+      </c>
+      <c r="B223" t="s">
+        <v>11</v>
+      </c>
+      <c r="C223" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>10</v>
+      </c>
+      <c r="B249" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B250" t="s">
+        <v>14</v>
+      </c>
+      <c r="C250" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/udacity_p3.xlsx
+++ b/udacity_p3.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\GBMLVFILFS04N02.rbsres01.net\home2$\maniihf\Profile\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E575C785-D3A1-4A16-94AF-295F26A158EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469EC84D-3900-48AC-93A4-A9F46C263740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12600" xr2:uid="{06300978-5E59-4565-88E3-41BEB6A0BFEB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Screenshots" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Screenshots" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>AWS Codebuild:</t>
   </si>
@@ -84,6 +85,15 @@
   </si>
   <si>
     <t>project/starter/analytics/deployment.yaml</t>
+  </si>
+  <si>
+    <t>Review:</t>
+  </si>
+  <si>
+    <t>Codebuild -githook</t>
+  </si>
+  <si>
+    <t>kubectl logs &lt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -148,6 +158,143 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>559308</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>136561</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B97AA49-10EA-1843-07D4-4A5AB5BBDFEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="1209675"/>
+          <a:ext cx="9665208" cy="4641886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>465295</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D4E5FC5-B1A0-2835-C3BE-83B6D3E9FD60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6667500"/>
+          <a:ext cx="11438095" cy="1933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>532495</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>56619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEB5A10C-BDC6-7890-B5D2-B89F2907DDD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="8953500"/>
+          <a:ext cx="7238095" cy="4247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -976,10 +1123,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F05F087-36D1-45DD-B06D-3F07F383530D}">
+  <dimension ref="A2:B47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="P51" sqref="P51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC277FDB-2194-43EF-B194-1A2951153775}">
   <dimension ref="A2:C250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+    <sheetView topLeftCell="A59" workbookViewId="0">
       <selection activeCell="C250" sqref="C250"/>
     </sheetView>
   </sheetViews>
